--- a/EDI/Web/wwwroot/Upload/Translation.xlsx
+++ b/EDI/Web/wwwroot/Upload/Translation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dengb\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5664CF71-2F80-45B4-8125-E6D137F817CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C8CC33-38B8-4101-AA7C-F63754F09DC0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="74">
   <si>
     <t>English</t>
   </si>
@@ -28,16 +28,133 @@
     <t>French</t>
   </si>
   <si>
+    <t>% Complete</t>
+  </si>
+  <si>
+    <t>% Achevée</t>
+  </si>
+  <si>
+    <t>A Population-Based Measure for Communities</t>
+  </si>
+  <si>
+    <t>Une mesure basée sur la population pour les communautés</t>
+  </si>
+  <si>
+    <t>Add</t>
+  </si>
+  <si>
+    <t>Ajouter</t>
+  </si>
+  <si>
+    <t>Children</t>
+  </si>
+  <si>
+    <t>Enfants</t>
+  </si>
+  <si>
+    <t>Child's Local ID</t>
+  </si>
+  <si>
+    <t>Carte d'identité locale de l'enfant</t>
+  </si>
+  <si>
+    <t>Class List</t>
+  </si>
+  <si>
+    <t>Liste des classes</t>
+  </si>
+  <si>
+    <t>Class Management</t>
+  </si>
+  <si>
+    <t>Gestion de classe</t>
+  </si>
+  <si>
     <t>Dashboard</t>
   </si>
   <si>
     <t>Tableau de bord</t>
   </si>
   <si>
-    <t>Class List</t>
-  </si>
-  <si>
-    <t>Liste des classes</t>
+    <t>Dashboard for Teacher</t>
+  </si>
+  <si>
+    <t>Tableau de bord pour l'enseignant</t>
+  </si>
+  <si>
+    <t>Date of Birth</t>
+  </si>
+  <si>
+    <t>Date de naissance</t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t>Supprimer</t>
+  </si>
+  <si>
+    <t>Early Development Instrument</t>
+  </si>
+  <si>
+    <t>Instrument de développement précoce</t>
+  </si>
+  <si>
+    <t>EDI Questionnaires</t>
+  </si>
+  <si>
+    <t>Questionnaires EDI</t>
+  </si>
+  <si>
+    <t>Edit</t>
+  </si>
+  <si>
+    <t>Éditer</t>
+  </si>
+  <si>
+    <t>Excel Export</t>
+  </si>
+  <si>
+    <t>Exportation Excel</t>
+  </si>
+  <si>
+    <t>Excel Import</t>
+  </si>
+  <si>
+    <t>Importation Excel</t>
+  </si>
+  <si>
+    <t>FAQ</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Le genre</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>En cours</t>
+  </si>
+  <si>
+    <t>Links</t>
+  </si>
+  <si>
+    <t>Liens</t>
+  </si>
+  <si>
+    <t>Not Started</t>
+  </si>
+  <si>
+    <t>Pas commencé</t>
+  </si>
+  <si>
+    <t>Questions</t>
+  </si>
+  <si>
+    <t>Des questions</t>
   </si>
   <si>
     <t>Resources</t>
@@ -46,26 +163,92 @@
     <t>Ressources</t>
   </si>
   <si>
-    <t>Links</t>
-  </si>
-  <si>
-    <t>Liens</t>
-  </si>
-  <si>
-    <t>FAQ</t>
-  </si>
-  <si>
-    <t>Questions</t>
-  </si>
-  <si>
-    <t>Des questions</t>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>Chercher</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Statut</t>
+  </si>
+  <si>
+    <t>Teacher</t>
+  </si>
+  <si>
+    <t>Professeure</t>
+  </si>
+  <si>
+    <t>Total Questionnaires</t>
+  </si>
+  <si>
+    <t>Total des questionnaires</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>An</t>
+  </si>
+  <si>
+    <t>Complete</t>
+  </si>
+  <si>
+    <t>Teacher Questionnaires</t>
+  </si>
+  <si>
+    <t>Teacher Participation Questionaire</t>
+  </si>
+  <si>
+    <t>Site</t>
+  </si>
+  <si>
+    <t>School</t>
+  </si>
+  <si>
+    <t>Document Management</t>
+  </si>
+  <si>
+    <t>FREQUENTLY ASKED QUESTIONS</t>
+  </si>
+  <si>
+    <t>Sample Questions for Teacher</t>
+  </si>
+  <si>
+    <t>Achevé</t>
+  </si>
+  <si>
+    <t>Questionnaires des enseignants</t>
+  </si>
+  <si>
+    <t>Questionnaire sur la participation des enseignants</t>
+  </si>
+  <si>
+    <t>Teacher Training Feedback Questionaire</t>
+  </si>
+  <si>
+    <t>Questionnaire de rétroaction sur la formation des enseignants</t>
+  </si>
+  <si>
+    <t>École</t>
+  </si>
+  <si>
+    <t>Gestion de documents</t>
+  </si>
+  <si>
+    <t>QUESTIONS FRÉQUEMMENT POSÉES</t>
+  </si>
+  <si>
+    <t>Exemples de questions pour l'enseignant</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10.5"/>
       <color rgb="FF000000"/>
@@ -82,6 +265,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -91,7 +280,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -142,6 +331,17 @@
       <bottom style="thin">
         <color rgb="FFE0E0E0"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFE0E0E0"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFE0E0E0"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -154,7 +354,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1">
       <alignment horizontal="center"/>
@@ -163,6 +363,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFill="1" applyBorder="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -481,16 +693,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -510,47 +722,304 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
-        <v>10</v>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="A7" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/EDI/Web/wwwroot/Upload/Translation.xlsx
+++ b/EDI/Web/wwwroot/Upload/Translation.xlsx
@@ -1,18 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Andre\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="78" count="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="82">
   <si>
     <t>English</t>
   </si>
@@ -74,12 +81,6 @@
     <t>Tableau de bord</t>
   </si>
   <si>
-    <t>Dashboard for Teacher</t>
-  </si>
-  <si>
-    <t>Tableau de bord pour l'enseignant</t>
-  </si>
-  <si>
     <t>Date of Birth</t>
   </si>
   <si>
@@ -246,13 +247,31 @@
   </si>
   <si>
     <t>An</t>
+  </si>
+  <si>
+    <t>Administrator Dashboard</t>
+  </si>
+  <si>
+    <t>Tableau de bord administrateur</t>
+  </si>
+  <si>
+    <t>Tableau de bord des enseignants</t>
+  </si>
+  <si>
+    <t>Teacher Dashboard</t>
+  </si>
+  <si>
+    <t>Tableau de bord du coordinateur</t>
+  </si>
+  <si>
+    <t>Coordinator Dashboard</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10.5"/>
       <color rgb="FF000000"/>
@@ -268,6 +287,12 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -299,6 +324,7 @@
       <bottom style="thin">
         <color rgb="FFE0E0E0"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -313,6 +339,7 @@
       <bottom style="thin">
         <color rgb="FFE0E0E0"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -327,373 +354,669 @@
       <bottom style="thin">
         <color rgb="FFE0E0E0"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1">
-      <alignment horizontal="center" vertical="bottom" wrapText="0"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2">
-      <alignment horizontal="center" vertical="bottom" wrapText="0"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" wrapText="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1">
-      <alignment horizontal="center" vertical="bottom" wrapText="0"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2">
-      <alignment horizontal="center" vertical="bottom" wrapText="0"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="GridTranslationcolumn1" xfId="1"/>
     <cellStyle name="GridTranslationcolumn2" xfId="2"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.284285714285714" customWidth="1"/>
-    <col min="2" max="2" width="4.284285714285714" customWidth="1"/>
+    <col min="1" max="1" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s" s="4">
+    <row r="1" spans="1:2" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="4">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s" s="2">
+    <row r="2" spans="1:2" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s" s="2">
+    <row r="3" spans="1:2" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s" s="2">
+    <row r="4" spans="1:2" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s" s="3">
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s" s="2">
+    <row r="6" spans="1:2" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s" s="3">
+      <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s" s="2">
+    <row r="7" spans="1:2" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s" s="3">
+      <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s" s="2">
+    <row r="8" spans="1:2" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s" s="3">
+      <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s" s="2">
+    <row r="9" spans="1:2" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s" s="3">
+      <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s" s="2">
+    <row r="10" spans="1:2" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s" s="3">
+      <c r="B10" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s" s="2">
+    <row r="11" spans="1:2" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s" s="3">
+      <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s" s="2">
+    <row r="12" spans="1:2" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B11" t="s" s="3">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s" s="2">
+    <row r="14" spans="1:2" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B12" t="s" s="3">
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s" s="2">
+    <row r="15" spans="1:2" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B13" t="s" s="3">
+      <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s" s="2">
+    <row r="16" spans="1:2" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B14" t="s" s="3">
+      <c r="B16" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s" s="2">
+    <row r="17" spans="1:2" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B15" t="s" s="3">
+      <c r="B17" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s" s="2">
+    <row r="18" spans="1:2" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B16" t="s" s="3">
+      <c r="B18" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s" s="2">
+    <row r="19" spans="1:2" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B17" t="s" s="3">
+      <c r="B19" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s" s="2">
+    <row r="20" spans="1:2" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B18" t="s" s="3">
+      <c r="B20" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s" s="2">
+    <row r="21" spans="1:2" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B19" t="s" s="3">
+      <c r="B21" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s" s="2">
+    <row r="22" spans="1:2" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B20" t="s" s="3">
+      <c r="B22" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s" s="2">
+      <c r="B23" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B21" t="s" s="3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s" s="2">
+    </row>
+    <row r="24" spans="1:2" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B22" t="s" s="3">
+      <c r="B24" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s" s="2">
+    <row r="25" spans="1:2" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B23" t="s" s="3">
+      <c r="B25" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s" s="2">
+    <row r="26" spans="1:2" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B24" t="s" s="3">
+      <c r="B26" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s" s="2">
+    <row r="27" spans="1:2" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B25" t="s" s="3">
+      <c r="B27" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s" s="2">
+    <row r="28" spans="1:2" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B26" t="s" s="3">
+      <c r="B28" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s" s="2">
+    <row r="29" spans="1:2" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B27" t="s" s="3">
+      <c r="B29" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s" s="2">
+    <row r="30" spans="1:2" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B28" t="s" s="3">
+      <c r="B30" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s" s="2">
+    <row r="31" spans="1:2" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B29" t="s" s="3">
+      <c r="B31" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s" s="2">
+    <row r="32" spans="1:2" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B30" t="s" s="3">
+      <c r="B32" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s" s="2">
+    <row r="33" spans="1:2" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B31" t="s" s="3">
+      <c r="B33" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s" s="2">
+    <row r="34" spans="1:2" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B32" t="s" s="3">
+      <c r="B34" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s" s="2">
+      <c r="B35" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B33" t="s" s="3">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s" s="2">
+    </row>
+    <row r="36" spans="1:2" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B34" t="s" s="3">
+      <c r="B36" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s" s="2">
+    <row r="37" spans="1:2" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B35" t="s" s="3">
+      <c r="B37" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s" s="2">
+    <row r="38" spans="1:2" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B36" t="s" s="3">
+      <c r="B38" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s" s="2">
+    <row r="39" spans="1:2" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B37" t="s" s="3">
+      <c r="B39" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s" s="2">
+    <row r="40" spans="1:2" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B38" t="s" s="3">
+      <c r="B40" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s" s="2">
+    <row r="41" spans="1:2" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B39" t="s" s="3">
+      <c r="B41" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="B40" t="s" s="3">
-        <v>77</v>
-      </c>
+    <row r="42" spans="1:2" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter scaleWithDoc="1" alignWithMargins="0" differentFirst="0" differentOddEven="0"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>